--- a/server/data/customer/modifiedCustomer.xlsx
+++ b/server/data/customer/modifiedCustomer.xlsx
@@ -397,13 +397,1655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Company</v>
+      </c>
+      <c r="B1" t="str">
+        <v>First Name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Last Name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Display Name As</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Preferred Delivery Method</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Billing Address Line 1</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Billing Address Line 2</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Phone</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Billing Address City</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Billing Address Country</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Other</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Billing Address Postal Code</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Shipping Address Line 1</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Shipping Address Line 2</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Shipping Address City</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Shipping Address Postal Code</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Terms</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>10 For 230_20057797_PLUS_10</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Nokuthula</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Shabangu</v>
+      </c>
+      <c r="D2" t="str">
+        <v>10 For 230_20057797_PLUS_10</v>
+      </c>
+      <c r="E2" t="str">
+        <v>mbsoultions@gmail.com</v>
+      </c>
+      <c r="F2" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>10 For 230_20057797_PLUS_3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Nokuthula</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Shabangu</v>
+      </c>
+      <c r="D3" t="str">
+        <v>10 For 230_20057797_PLUS_3</v>
+      </c>
+      <c r="E3" t="str">
+        <v>mbsoultions@gmail.com</v>
+      </c>
+      <c r="F3" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>10 For 230_20057797_PLUS_4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Nokuthula</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Shabangu</v>
+      </c>
+      <c r="D4" t="str">
+        <v>10 For 230_20057797_PLUS_4</v>
+      </c>
+      <c r="E4" t="str">
+        <v>mbsoultions@gmail.com</v>
+      </c>
+      <c r="F4" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>10 For 230_20057797_PLUS_5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Nokuthula</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Shabangu</v>
+      </c>
+      <c r="D5" t="str">
+        <v>10 For 230_20057797_PLUS_5</v>
+      </c>
+      <c r="E5" t="str">
+        <v>mbsoultions@gmail.com</v>
+      </c>
+      <c r="F5" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>10 For 230_20057797_PLUS_6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Nokuthula</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Shabangu</v>
+      </c>
+      <c r="D6" t="str">
+        <v>10 For 230_20057797_PLUS_6</v>
+      </c>
+      <c r="E6" t="str">
+        <v>mbsoultions@gmail.com</v>
+      </c>
+      <c r="F6" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>10 For 230_20057797_PLUS_7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Nokuthula</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Shabangu</v>
+      </c>
+      <c r="D7" t="str">
+        <v>10 For 230_20057797_PLUS_7</v>
+      </c>
+      <c r="E7" t="str">
+        <v>mbsoultions@gmail.com</v>
+      </c>
+      <c r="F7" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>10 For 230_20057797_PLUS_8</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Nokuthula</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Shabangu</v>
+      </c>
+      <c r="D8" t="str">
+        <v>10 For 230_20057797_PLUS_8</v>
+      </c>
+      <c r="E8" t="str">
+        <v>mbsoultions@gmail.com</v>
+      </c>
+      <c r="F8" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>10 For 230_20057797_PLUS_9</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Nokuthula</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Shabangu</v>
+      </c>
+      <c r="D9" t="str">
+        <v>10 For 230_20057797_PLUS_9</v>
+      </c>
+      <c r="E9" t="str">
+        <v>mbsoultions@gmail.com</v>
+      </c>
+      <c r="F9" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>A2Z Tiles</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Stacey</v>
+      </c>
+      <c r="D10" t="str">
+        <v>A2Z Tiles</v>
+      </c>
+      <c r="E10" t="str">
+        <v>admin@a2ztiles.co.za</v>
+      </c>
+      <c r="F10" t="str">
+        <v>None</v>
+      </c>
+      <c r="G10" t="str" xml:space="preserve">
+        <v xml:space="preserve">A2Z Tiles_x000d__x000d_
+Edenvale</v>
+      </c>
+      <c r="H10" t="str" xml:space="preserve">
+        <v xml:space="preserve">A2Z Tiles_x000d__x000d_
+Edenvale</v>
+      </c>
+      <c r="I10">
+        <v>114531815</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Akwande Inzuzo</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Hudson</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Mtsweni</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Akwande Inzuzo</v>
+      </c>
+      <c r="F11" t="str">
+        <v>None</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Akwande Inzuzo</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Akwande Inzuzo</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="str">
+        <v>Ansie</v>
+      </c>
+      <c r="E12" t="str">
+        <v>ansie@idea-media.co.za</v>
+      </c>
+      <c r="F12" t="str">
+        <v>None</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Ansie</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Ansie</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Auto Interior</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Auto Interior</v>
+      </c>
+      <c r="E13" t="str">
+        <v>autointerior@polka.co.za</v>
+      </c>
+      <c r="F13" t="str">
+        <v>None</v>
+      </c>
+      <c r="G13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Auto Interior_x000d__x000d_
+5th Street_x000d__x000d_
+Wynberg, Sandton_x000d_
+Wynberg_x000d_
+Sandton</v>
+      </c>
+      <c r="H13" t="str" xml:space="preserve">
+        <v xml:space="preserve">Auto Interior_x000d__x000d_
+5th Street_x000d__x000d_
+Wynberg, Sandton</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Wynberg</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Sandton</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Beactress Business Enterprise</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Abram Jonas</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Mahlangu</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Beactress Business Enterprise</v>
+      </c>
+      <c r="E14" t="str">
+        <v>mgwezan1@outlook.com</v>
+      </c>
+      <c r="F14" t="str">
+        <v>None</v>
+      </c>
+      <c r="I14" t="str">
+        <v>+27 826741076</v>
+      </c>
+      <c r="L14" t="str">
+        <v>+27 826741076</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Blackrock Engineering (PTY) LTD</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Blackrock Engineering (PTY) LTD</v>
+      </c>
+      <c r="F15" t="str">
+        <v>None</v>
+      </c>
+      <c r="G15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Blackrock Engineering (PTY) LTD_x000d__x000d_
+12 Botha Laan_x000d__x000d_
+Witbank, 1035_x000d_
+Witbank 1035</v>
+      </c>
+      <c r="H15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Blackrock Engineering (PTY) LTD_x000d__x000d_
+12 Botha Laan_x000d__x000d_
+Witbank, 1035</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Witbank</v>
+      </c>
+      <c r="M15" t="str">
+        <v>1035</v>
+      </c>
+      <c r="N15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Blackrock Engineering (PTY) LTD_x000d__x000d_
+12 Botha Laan_x000d__x000d_
+Witbank_x000d__x000d_
+1035_x000d_
+Witbank 1035</v>
+      </c>
+      <c r="O15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Blackrock Engineering (PTY) LTD_x000d__x000d_
+12 Botha Laan_x000d__x000d_
+Witbank_x000d__x000d_
+1035</v>
+      </c>
+      <c r="P15" t="str">
+        <v>Witbank</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Bodacious Monitoring (Pty)Ltd</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Bodacious Monitoring (Pty)Ltd</v>
+      </c>
+      <c r="E16" t="str">
+        <v>admin2@bodacious.co.za</v>
+      </c>
+      <c r="F16" t="str">
+        <v>None</v>
+      </c>
+      <c r="G16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Bodacious Monitoring (Pty)Ltd_x000d__x000d_
+Unit 6 13 Sovereign Drive_x000d__x000d_
+Route 21 Corporate Park_x000d__x000d_
+Irene, Pretoria_x000d__x000d_
+Vat number: 4270252721_x000d_
+Vat number: 4270252721</v>
+      </c>
+      <c r="H16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Bodacious Monitoring (Pty)Ltd_x000d__x000d_
+Unit 6 13 Sovereign Drive_x000d__x000d_
+Route 21 Corporate Park_x000d__x000d_
+Irene, Pretoria_x000d__x000d_
+Vat number: 4270252721</v>
+      </c>
+      <c r="I16">
+        <v>118232820</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Vat number:</v>
+      </c>
+      <c r="M16" t="str">
+        <v>4270252721</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="str">
+        <v>Bongani Malaza</v>
+      </c>
+      <c r="F17" t="str">
+        <v>None</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Bongani Malaza</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Bongani Malaza</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Bright Idea Projects 112 CC</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Ralph</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Bright Idea Projects 112 CC</v>
+      </c>
+      <c r="E18" t="str">
+        <v>ralph@bipco.co.za</v>
+      </c>
+      <c r="F18" t="str">
+        <v>None</v>
+      </c>
+      <c r="G18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Bright Idea Projects 112 CC_x000d__x000d_
+Unit 5 Winnipeg Street_x000d__x000d_
+Spartan, 1619_x000d__x000d_
+Johannesburg_x000d_
+Spartan 1619</v>
+      </c>
+      <c r="H18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Bright Idea Projects 112 CC_x000d__x000d_
+Unit 5 Winnipeg Street_x000d__x000d_
+Spartan, 1619_x000d__x000d_
+Johannesburg</v>
+      </c>
+      <c r="I18">
+        <v>785659761</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Spartan</v>
+      </c>
+      <c r="M18" t="str">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Capital Plumbing</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Melanie</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Capital Plumbing</v>
+      </c>
+      <c r="E19" t="str">
+        <v>melanie@capitalplumbing.co.za</v>
+      </c>
+      <c r="F19" t="str">
+        <v>None</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Capital Plumbing</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Capital Plumbing</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Daisy</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Daisy</v>
+      </c>
+      <c r="F20" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>DRD Steel Services t/s Madison Steel</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Maureen</v>
+      </c>
+      <c r="D21" t="str">
+        <v>DRD Steel Services t/a Madison Steel</v>
+      </c>
+      <c r="E21" t="str">
+        <v>moreen@drde.co.za</v>
+      </c>
+      <c r="F21" t="str">
+        <v>None</v>
+      </c>
+      <c r="G21" t="str" xml:space="preserve">
+        <v xml:space="preserve">DRD Enterprises_x000d__x000d_
+37 Mitchelson Road_x000d__x000d_
+Westwood_x000d__x000d_
+Boksburg_x000d_
+Boksburg</v>
+      </c>
+      <c r="H21" t="str" xml:space="preserve">
+        <v xml:space="preserve">DRD Enterprises_x000d__x000d_
+37 Mitchelson Road_x000d__x000d_
+Westwood_x000d__x000d_
+Boksburg</v>
+      </c>
+      <c r="I21">
+        <v>118248351</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Boksburg</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Dudu</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Dudu</v>
+      </c>
+      <c r="F22" t="str">
+        <v>None</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Dudu</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Dudu</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Handson Tech</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Phillip</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Haas</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Handson Tech</v>
+      </c>
+      <c r="F23" t="str">
+        <v>None</v>
+      </c>
+      <c r="G23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Hands Tech_x000d__x000d_
+988 on Meadowbrook, Unit 11_x000d__x000d_
+Jacaranda Avenue, Olivedale,_x000d__x000d_
+2158_x000d_
+Jacaranda Avenue 2158_x000d_
+Olivedale</v>
+      </c>
+      <c r="H23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Hands Tech_x000d__x000d_
+988 on Meadowbrook, Unit 11_x000d__x000d_
+Jacaranda Avenue, Olivedale,_x000d__x000d_
+2158</v>
+      </c>
+      <c r="I23">
+        <v>114622581</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Jacaranda Avenue</v>
+      </c>
+      <c r="K23" t="str">
+        <v>Olivedale</v>
+      </c>
+      <c r="M23" t="str">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Hyper Doors</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Nick</v>
+      </c>
+      <c r="C24" t="str">
+        <v>van den Berg</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Hyper Doors</v>
+      </c>
+      <c r="E24" t="str">
+        <v>nick@hyperdoors.co.za</v>
+      </c>
+      <c r="F24" t="str">
+        <v>None</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Hyper Doors</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Hyper Doors</v>
+      </c>
+      <c r="I24">
+        <v>280070104</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="D25" t="str">
+        <v>Igagu Enterprise (Pty) Ltd</v>
+      </c>
+      <c r="E25" t="str">
+        <v>riette@igagu.org</v>
+      </c>
+      <c r="F25" t="str">
+        <v>None</v>
+      </c>
+      <c r="G25" t="str" xml:space="preserve">
+        <v xml:space="preserve">41 Voltargo Village_x000d__x000d_
+Wilge, Emalahleni_x000d_
+Wilge_x000d_
+Emalahleni</v>
+      </c>
+      <c r="H25" t="str" xml:space="preserve">
+        <v xml:space="preserve">41 Voltargo Village_x000d__x000d_
+Wilge, Emalahleni</v>
+      </c>
+      <c r="I25">
+        <v>130071367</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Wilge</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Emalahleni</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="D26" t="str">
+        <v>Ixion Network Solutions (Pty) Ltd</v>
+      </c>
+      <c r="E26" t="str">
+        <v>leeann@ixiom.co.za</v>
+      </c>
+      <c r="F26" t="str">
+        <v>None</v>
+      </c>
+      <c r="G26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ixiom Network Solutions (Pty) Ltd_x000d__x000d_
+Cnr Michelle Avenue &amp; Jochem van Bruggen_x000d__x000d_
+No 2 The Lofts, Meyersdal_x000d__x000d_
+Alberton_x000d_
+No 2 The Lofts_x000d_
+Meyersdal</v>
+      </c>
+      <c r="H26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Ixiom Network Solutions (Pty) Ltd_x000d__x000d_
+Cnr Michelle Avenue &amp; Jochem van Bruggen_x000d__x000d_
+No 2 The Lofts, Meyersdal_x000d__x000d_
+Alberton</v>
+      </c>
+      <c r="J26" t="str">
+        <v>No 2 The Lofts</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Meyersdal</v>
+      </c>
+      <c r="R26" t="str">
+        <v>COD</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Jan Piereweit</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Vanessa</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Van Vollenhoven</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Jan Pierewiet</v>
+      </c>
+      <c r="E27" t="str">
+        <v>info@jan-pierewiet.co.za</v>
+      </c>
+      <c r="F27" t="str">
+        <v>None</v>
+      </c>
+      <c r="G27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jan Piereweit_x000d__x000d_
+Jan Celliers Primary School_x000d__x000d_
+Lower Park Drive_x000d__x000d_
+Johannesburg_x000d_
+Johannesburg</v>
+      </c>
+      <c r="H27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jan Piereweit_x000d__x000d_
+Jan Celliers Primary School_x000d__x000d_
+Lower Park Drive_x000d__x000d_
+Johannesburg</v>
+      </c>
+      <c r="I27">
+        <v>828053565</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Johannesburg</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>LIT Africa (Pty) Ltd</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Stefan</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Harth</v>
+      </c>
+      <c r="D28" t="str">
+        <v>LIT Africa (Pty) Ltd</v>
+      </c>
+      <c r="E28" t="str">
+        <v>stefanh@litafrica.co.za</v>
+      </c>
+      <c r="F28" t="str">
+        <v>None</v>
+      </c>
+      <c r="G28" t="str" xml:space="preserve">
+        <v xml:space="preserve">LIT Africa (Pty) Ltd_x000d__x000d_
+Cube Workspace_x000d__x000d_
+1 Wedgewoodlink_x000d__x000d_
+Braynston_x000d_
+Braynston</v>
+      </c>
+      <c r="H28" t="str" xml:space="preserve">
+        <v xml:space="preserve">LIT Africa (Pty) Ltd_x000d__x000d_
+Cube Workspace_x000d__x000d_
+1 Wedgewoodlink_x000d__x000d_
+Braynston</v>
+      </c>
+      <c r="I28">
+        <v>113155444</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Braynston</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Logan</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Logan</v>
+      </c>
+      <c r="F29" t="str">
+        <v>None</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Logan</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Logan</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Maelgwyn Mineral Services Africa (Pty) Lt</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Steven</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Stone</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Maelgwyn Mineral Services Africa (Pty) Lt</v>
+      </c>
+      <c r="E30" t="str">
+        <v>petro@maelgwynafrica.com</v>
+      </c>
+      <c r="F30" t="str">
+        <v>None</v>
+      </c>
+      <c r="G30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Maelgwyn Mineral Services Africa (Pty) Lt_x000d__x000d_
+1331 Staal Road_x000d__x000d_
+Cnr Spokeshave &amp; Staal Street_x000d__x000d_
+Ext 2, Maraisburg_x000d_
+Ext 2_x000d_
+Maraisburg</v>
+      </c>
+      <c r="H30" t="str" xml:space="preserve">
+        <v xml:space="preserve">Maelgwyn Mineral Services Africa (Pty) Lt_x000d__x000d_
+1331 Staal Road_x000d__x000d_
+Cnr Spokeshave &amp; Staal Street_x000d__x000d_
+Ext 2, Maraisburg</v>
+      </c>
+      <c r="I30">
+        <v>114740705</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Ext 2</v>
+      </c>
+      <c r="K30" t="str">
+        <v>Maraisburg</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Masc Projects</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Nabene</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Masc Project</v>
+      </c>
+      <c r="E31" t="str">
+        <v>nabenem@mascsolutions.com</v>
+      </c>
+      <c r="F31" t="str">
+        <v>None</v>
+      </c>
+      <c r="G31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Masc Projects_x000d__x000d_
+56B Ronald Avenue_x000d__x000d_
+Linbro Park_x000d__x000d_
+Johannesburg, 2090_x000d_
+Johannesburg 2090</v>
+      </c>
+      <c r="H31" t="str" xml:space="preserve">
+        <v xml:space="preserve">Masc Projects_x000d__x000d_
+56B Ronald Avenue_x000d__x000d_
+Linbro Park_x000d__x000d_
+Johannesburg, 2090</v>
+      </c>
+      <c r="I31">
+        <v>111000088</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Johannesburg</v>
+      </c>
+      <c r="M31" t="str">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Masc Prop</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Nabene</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Masc Prop</v>
+      </c>
+      <c r="E32" t="str">
+        <v>nabenem@mascsolutions.com</v>
+      </c>
+      <c r="F32" t="str">
+        <v>None</v>
+      </c>
+      <c r="G32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Masc Prop_x000d__x000d_
+56B Ronald Avenue_x000d__x000d_
+Linbro Park_x000d_
+Linbro Park</v>
+      </c>
+      <c r="H32" t="str" xml:space="preserve">
+        <v xml:space="preserve">Masc Prop_x000d__x000d_
+56B Ronald Avenue_x000d__x000d_
+Linbro Park</v>
+      </c>
+      <c r="I32" t="str">
+        <v>011 100 0088</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Linbro Park</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="str">
+        <v>Masungulo Yamatiko</v>
+      </c>
+      <c r="F33" t="str">
+        <v>None</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Masungulo Yamatiko</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Masungulo Yamatiko</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="str">
+        <v>Mr Getsemane</v>
+      </c>
+      <c r="F34" t="str">
+        <v>None</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Mr Getsemane</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Mr Getsemane</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Mushroom Budds</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Miqualle</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Mushroom Budds</v>
+      </c>
+      <c r="E35" t="str">
+        <v>miqualle@gmail.com</v>
+      </c>
+      <c r="F35" t="str">
+        <v>None</v>
+      </c>
+      <c r="G35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Mushroom Budds_x000d__x000d_
+111 Monument Avenue_x000d__x000d_
+Lyttelton Manor_x000d__x000d_
+Centurion_x000d_
+Centurion</v>
+      </c>
+      <c r="H35" t="str" xml:space="preserve">
+        <v xml:space="preserve">Mushroom Budds_x000d__x000d_
+111 Monument Avenue_x000d__x000d_
+Lyttelton Manor_x000d__x000d_
+Centurion</v>
+      </c>
+      <c r="I35">
+        <v>126641340</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Centurion</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>POISEC</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Vuyo</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Mbatha</v>
+      </c>
+      <c r="D36" t="str">
+        <v>POISEC</v>
+      </c>
+      <c r="E36" t="str">
+        <v>vuyo@poisec.co.za</v>
+      </c>
+      <c r="F36" t="str">
+        <v>None</v>
+      </c>
+      <c r="G36" t="str" xml:space="preserve">
+        <v xml:space="preserve">POISEC_x000d__x000d_
+Vuyo Mbatha</v>
+      </c>
+      <c r="H36" t="str" xml:space="preserve">
+        <v xml:space="preserve">POISEC_x000d__x000d_
+Vuyo Mbatha</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Quadra Blocks (PTY) Ltd</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Chauntelle</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Human</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Quadra Blocks (PTY) Ltd</v>
+      </c>
+      <c r="E37" t="str">
+        <v>chauntele@quadrablocks.co.za</v>
+      </c>
+      <c r="F37" t="str">
+        <v>None</v>
+      </c>
+      <c r="G37" t="str" xml:space="preserve">
+        <v xml:space="preserve">Quadra Blocks (PTY) Ltd_x000d__x000d_
+11 Tarentaal Avenue_x000d__x000d_
+Three Rivers East_x000d__x000d_
+Vereeniging_x000d_
+Vereeniging</v>
+      </c>
+      <c r="H37" t="str" xml:space="preserve">
+        <v xml:space="preserve">Quadra Blocks (PTY) Ltd_x000d__x000d_
+11 Tarentaal Avenue_x000d__x000d_
+Three Rivers East_x000d__x000d_
+Vereeniging</v>
+      </c>
+      <c r="I37" t="str">
+        <v>016 454 8358</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Vereeniging</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Rabomba Cleaning Products</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Rabomba Cleaning Products</v>
+      </c>
+      <c r="E38" t="str">
+        <v>rabomba@gmail.com</v>
+      </c>
+      <c r="F38" t="str">
+        <v>None</v>
+      </c>
+      <c r="G38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Rabomba Cleaning Products_x000d__x000d_
+Shop 8 Wildlife Estate_x000d__x000d_
+Pick N Pay Centre, Hoedspruit_x000d_
+Pick N Pay Centre_x000d_
+Hoedspruit</v>
+      </c>
+      <c r="H38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Rabomba Cleaning Products_x000d__x000d_
+Shop 8 Wildlife Estate_x000d__x000d_
+Pick N Pay Centre, Hoedspruit</v>
+      </c>
+      <c r="J38" t="str">
+        <v>Pick N Pay Centre</v>
+      </c>
+      <c r="K38" t="str">
+        <v>Hoedspruit</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Rent-A-Property T/A Status Mark</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Genna</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Bronkhorst</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Rent-A-Property T/A Status Mark</v>
+      </c>
+      <c r="E39" t="str">
+        <v>genna@rentaproperty.co.za</v>
+      </c>
+      <c r="F39" t="str">
+        <v>None</v>
+      </c>
+      <c r="G39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Rent-A-Property T/A Status Mark_x000d__x000d_
+Building 5, Suite 1_x000d__x000d_
+Ruimsig Office Estates_x000d__x000d_
+572 Hole-in-one- Road_x000d_
+572 Hole-in-one- Road</v>
+      </c>
+      <c r="H39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Rent-A-Property T/A Status Mark_x000d__x000d_
+Building 5, Suite 1_x000d__x000d_
+Ruimsig Office Estates_x000d__x000d_
+572 Hole-in-one- Road</v>
+      </c>
+      <c r="I39">
+        <v>116680100</v>
+      </c>
+      <c r="J39" t="str">
+        <v>572 Hole-in-one- Road</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>SAAI Trading</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Krish</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Chetty</v>
+      </c>
+      <c r="D40" t="str">
+        <v>SAAI Trading</v>
+      </c>
+      <c r="E40" t="str">
+        <v>krish@saaitrading.co.za</v>
+      </c>
+      <c r="F40" t="str">
+        <v>None</v>
+      </c>
+      <c r="G40" t="str" xml:space="preserve">
+        <v xml:space="preserve">SAAI Trading_x000d__x000d_
+39 JF Kennedy Avenue_x000d__x000d_
+Bonaero Park_x000d__x000d_
+Kempton Park, 1619_x000d_
+Kempton Park 1619</v>
+      </c>
+      <c r="H40" t="str" xml:space="preserve">
+        <v xml:space="preserve">SAAI Trading_x000d__x000d_
+39 JF Kennedy Avenue_x000d__x000d_
+Bonaero Park_x000d__x000d_
+Kempton Park, 1619</v>
+      </c>
+      <c r="I40">
+        <v>614731733</v>
+      </c>
+      <c r="J40" t="str">
+        <v>Kempton Park</v>
+      </c>
+      <c r="M40" t="str">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Specialised Belting Products Pty Ltd</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Clyde</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Lok</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Specialised Belting Products Pty Ltd</v>
+      </c>
+      <c r="E41" t="str">
+        <v>lok@icon.co.za</v>
+      </c>
+      <c r="F41" t="str">
+        <v>None</v>
+      </c>
+      <c r="G41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Specialised Belting Products Pty Ltd_x000d__x000d_
+3 Enkeldoring Street_x000d__x000d_
+Randparkridge Ext3_x000d__x000d_
+Randburg_x000d_
+Randburg</v>
+      </c>
+      <c r="H41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Specialised Belting Products Pty Ltd_x000d__x000d_
+3 Enkeldoring Street_x000d__x000d_
+Randparkridge Ext3_x000d__x000d_
+Randburg</v>
+      </c>
+      <c r="I41">
+        <v>117934484</v>
+      </c>
+      <c r="J41" t="str">
+        <v>Randburg</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Sthembiso Nicolas Vilakazi</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Sthembiso</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Vilakazi</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Sthembiso Nicolas Vilakazi</v>
+      </c>
+      <c r="F42" t="str">
+        <v>None</v>
+      </c>
+      <c r="G42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sthembiso Nicolas Vilakazi_x000d__x000d_
+Sthembiso Vilakazi</v>
+      </c>
+      <c r="H42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Sthembiso Nicolas Vilakazi_x000d__x000d_
+Sthembiso Vilakazi</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>THAT ENGINEERING PLACE CC T/A SUPERGEL</v>
+      </c>
+      <c r="D43" t="str">
+        <v>SUPERGEL</v>
+      </c>
+      <c r="E43" t="str">
+        <v>amanda@supergel.co.za</v>
+      </c>
+      <c r="F43" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>TauSadi Mining and Engineering Pty Ltd</v>
+      </c>
+      <c r="D44" t="str">
+        <v>TauSadi Mining and Engineering Pty Ltd</v>
+      </c>
+      <c r="F44" t="str">
+        <v>None</v>
+      </c>
+      <c r="G44" t="str">
+        <v>TauSadi Mining and Engineering Pty Ltd</v>
+      </c>
+      <c r="H44" t="str">
+        <v>TauSadi Mining and Engineering Pty Ltd</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Test cusrtomers</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Test cusrtomers</v>
+      </c>
+      <c r="E45" t="str">
+        <v>test@test.co.za</v>
+      </c>
+      <c r="F45" t="str">
+        <v>None</v>
+      </c>
+      <c r="I45" t="str">
+        <v>+10102034300</v>
+      </c>
+      <c r="L45" t="str">
+        <v>+10102034300</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>TG</v>
+      </c>
+      <c r="D46" t="str">
+        <v>TG</v>
+      </c>
+      <c r="F46" t="str">
+        <v>None</v>
+      </c>
+      <c r="G46" t="str" xml:space="preserve">
+        <v xml:space="preserve">Patience Hlabangwane_x000d__x000d_
+Kwa-Guqa Advise Office_x000d__x000d_
+Email: kwaguqa2022@gmail.com_x000d__x000d_
+Tel: 0695607491_x000d_
+Tel: 0695607491</v>
+      </c>
+      <c r="H46" t="str" xml:space="preserve">
+        <v xml:space="preserve">Patience Hlabangwane_x000d__x000d_
+Kwa-Guqa Advise Office_x000d__x000d_
+Email: kwaguqa2022@gmail.com_x000d__x000d_
+Tel: 0695607491</v>
+      </c>
+      <c r="J46" t="str">
+        <v>Tel:</v>
+      </c>
+      <c r="M46" t="str">
+        <v>0695607491</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>That Engineering Place t/a Supergel</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Amanda</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Bates</v>
+      </c>
+      <c r="D47" t="str">
+        <v>That Engineering Place t/a Supergel</v>
+      </c>
+      <c r="E47" t="str">
+        <v>amanda@supergel.co.za</v>
+      </c>
+      <c r="F47" t="str">
+        <v>None</v>
+      </c>
+      <c r="G47" t="str" xml:space="preserve">
+        <v xml:space="preserve">That Engineering Place t/a Supergel_x000d__x000d_
+35 Rennie Road_x000d__x000d_
+Sundra_x000d_
+Sundra</v>
+      </c>
+      <c r="H47" t="str" xml:space="preserve">
+        <v xml:space="preserve">That Engineering Place t/a Supergel_x000d__x000d_
+35 Rennie Road_x000d__x000d_
+Sundra</v>
+      </c>
+      <c r="I47" t="str">
+        <v>013 661 1180</v>
+      </c>
+      <c r="J47" t="str">
+        <v>Sundra</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>The Practice</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Elaine</v>
+      </c>
+      <c r="D48" t="str">
+        <v>The Practice</v>
+      </c>
+      <c r="E48" t="str">
+        <v>elaine@creativess.co.za</v>
+      </c>
+      <c r="F48" t="str">
+        <v>None</v>
+      </c>
+      <c r="G48" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Practice_x000d__x000d_
+57 1st Avenue_x000d__x000d_
+Linden_x000d__x000d_
+Randburg_x000d_
+Randburg</v>
+      </c>
+      <c r="H48" t="str" xml:space="preserve">
+        <v xml:space="preserve">The Practice_x000d__x000d_
+57 1st Avenue_x000d__x000d_
+Linden_x000d__x000d_
+Randburg</v>
+      </c>
+      <c r="I48">
+        <v>117820393</v>
+      </c>
+      <c r="J48" t="str">
+        <v>Randburg</v>
+      </c>
+      <c r="R48" t="str">
+        <v>COD</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>Therm Guard</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Eric</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Therm Guard</v>
+      </c>
+      <c r="E49" t="str">
+        <v>eric@thermguard.co.za</v>
+      </c>
+      <c r="F49" t="str">
+        <v>None</v>
+      </c>
+      <c r="G49" t="str" xml:space="preserve">
+        <v xml:space="preserve">Therm Guard_x000d__x000d_
+106 Plane road_x000d__x000d_
+Spartan, Kempton Park_x000d__x000d_
+1619_x000d_
+Spartan 1619_x000d_
+Kempton Park</v>
+      </c>
+      <c r="H49" t="str" xml:space="preserve">
+        <v xml:space="preserve">Therm Guard_x000d__x000d_
+106 Plane road_x000d__x000d_
+Spartan, Kempton Park_x000d__x000d_
+1619</v>
+      </c>
+      <c r="J49" t="str">
+        <v>Spartan</v>
+      </c>
+      <c r="K49" t="str">
+        <v>Kempton Park</v>
+      </c>
+      <c r="M49" t="str">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>Thuthukani Advisory &amp; Consulting (Pty) Lt</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Thuthukani Advisory &amp; Consulting (Pty) Lt</v>
+      </c>
+      <c r="E50" t="str">
+        <v>admin@thuthukisa.co.za</v>
+      </c>
+      <c r="F50" t="str">
+        <v>None</v>
+      </c>
+      <c r="G50" t="str" xml:space="preserve">
+        <v xml:space="preserve">Thuthukani Advisory &amp; Consulting (Pty) Lt_x000d__x000d_
+92 Koot Road_x000d__x000d_
+Withok Estate AH_x000d__x000d_
+Brakpan_x000d__x000d_
+1541_x000d_
+Brakpan 1541</v>
+      </c>
+      <c r="H50" t="str" xml:space="preserve">
+        <v xml:space="preserve">Thuthukani Advisory &amp; Consulting (Pty) Lt_x000d__x000d_
+92 Koot Road_x000d__x000d_
+Withok Estate AH_x000d__x000d_
+Brakpan_x000d__x000d_
+1541</v>
+      </c>
+      <c r="I50">
+        <v>118250647</v>
+      </c>
+      <c r="J50" t="str">
+        <v>Brakpan</v>
+      </c>
+      <c r="M50" t="str">
+        <v>1541</v>
+      </c>
+      <c r="N50" t="str" xml:space="preserve">
+        <v xml:space="preserve">Thuthukani Advisory &amp; Consulting (Pty) Lt_x000d__x000d_
+92 Koot Road_x000d__x000d_
+Withok Estate AH_x000d__x000d_
+Brakpan_x000d__x000d_
+1541_x000d_
+Brakpan 1541</v>
+      </c>
+      <c r="O50" t="str" xml:space="preserve">
+        <v xml:space="preserve">Thuthukani Advisory &amp; Consulting (Pty) Lt_x000d__x000d_
+92 Koot Road_x000d__x000d_
+Withok Estate AH_x000d__x000d_
+Brakpan_x000d__x000d_
+1541</v>
+      </c>
+      <c r="P50" t="str">
+        <v>Brakpan</v>
+      </c>
+      <c r="Q50" t="str">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Thuthukisa Institute NPC</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Thuthukisa Institute NPC</v>
+      </c>
+      <c r="E51" t="str">
+        <v>admin@thuthukisa.co.za</v>
+      </c>
+      <c r="F51" t="str">
+        <v>None</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Tracy</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Tracy</v>
+      </c>
+      <c r="E52" t="str">
+        <v>tracy@sparksa.co.za</v>
+      </c>
+      <c r="F52" t="str">
+        <v>None</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Tracy</v>
+      </c>
+      <c r="H52" t="str">
+        <v>Tracy</v>
+      </c>
+      <c r="I52">
+        <v>798352158</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Vuka Africa Consulting</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Bokgadi</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Riba</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Vuka Africa Consulting</v>
+      </c>
+      <c r="E53" t="str">
+        <v>mummyr@vukaafrica.co.za</v>
+      </c>
+      <c r="F53" t="str">
+        <v>None</v>
+      </c>
+      <c r="G53" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vuka Africa Consulting_x000d__x000d_
+798 Arcadia Street_x000d__x000d_
+Arcadia, Pretoria 0126_x000d_
+Arcadia 0126_x000d_
+Pretoria</v>
+      </c>
+      <c r="H53" t="str" xml:space="preserve">
+        <v xml:space="preserve">Vuka Africa Consulting_x000d__x000d_
+798 Arcadia Street_x000d__x000d_
+Arcadia, Pretoria 0126</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Arcadia</v>
+      </c>
+      <c r="K53" t="str">
+        <v>Pretoria</v>
+      </c>
+      <c r="M53" t="str">
+        <v>0126</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="str">
+        <v>Washesha Connections</v>
+      </c>
+      <c r="F54" t="str">
+        <v>None</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Washesha Connections</v>
+      </c>
+      <c r="H54" t="str">
+        <v>Washesha Connections</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>Whoz Who</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Paul</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Mahlase</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Whoz Who</v>
+      </c>
+      <c r="E55" t="str">
+        <v>paul.mahlase@easybiztech.co.za</v>
+      </c>
+      <c r="F55" t="str">
+        <v>None</v>
+      </c>
+      <c r="G55" t="str" xml:space="preserve">
+        <v xml:space="preserve">Whoz Who_x000d__x000d_
+Paul Mahlase</v>
+      </c>
+      <c r="H55" t="str" xml:space="preserve">
+        <v xml:space="preserve">Whoz Who_x000d__x000d_
+Paul Mahlase</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Zama Mabuza</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Zamakhosi</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Mabuza</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Zama Mabuza</v>
+      </c>
+      <c r="E56" t="str">
+        <v>zcmabuza@gmail.com</v>
+      </c>
+      <c r="F56" t="str">
+        <v>None</v>
+      </c>
+      <c r="I56" t="str">
+        <v>+27 823925809</v>
+      </c>
+      <c r="L56" t="str">
+        <v>+27 823925809</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="str">
+        <v>Zama</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Customer</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Zama Mabuza Customer</v>
+      </c>
+      <c r="E57" t="str">
+        <v>zcmabuza@gmail.com</v>
+      </c>
+      <c r="F57" t="str">
+        <v>None</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R57"/>
   </ignoredErrors>
 </worksheet>
 </file>